--- a/us/Princeton (US) Project - DC Data/field_diffs.xlsx
+++ b/us/Princeton (US) Project - DC Data/field_diffs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -299,7 +299,10 @@
     <t>csv</t>
   </si>
   <si>
-    <t>solution</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>solution - use this as the standard template</t>
   </si>
 </sst>
 </file>
@@ -349,10 +352,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,15 +648,15 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -668,17 +672,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -686,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -694,12 +704,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -707,47 +720,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -755,17 +792,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -773,7 +816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -781,17 +824,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -799,7 +848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -807,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -815,22 +864,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -838,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -846,22 +904,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -869,7 +936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -877,7 +944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -885,12 +952,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -898,7 +968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -906,7 +976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -914,12 +984,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -927,17 +1000,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -945,7 +1024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -953,7 +1032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -961,7 +1040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -969,7 +1048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -977,7 +1056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -985,7 +1064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -993,7 +1072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1001,7 +1080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1009,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1017,7 +1096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1025,12 +1104,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1038,7 +1120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1046,7 +1128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1054,7 +1136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1062,7 +1144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1070,7 +1152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1078,7 +1160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1086,7 +1168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1094,7 +1176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1102,7 +1184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1110,45 +1192,63 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1156,7 +1256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1164,7 +1264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1172,7 +1272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1180,7 +1280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1188,7 +1288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1196,7 +1296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1204,7 +1304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1212,7 +1312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1220,22 +1320,31 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1243,7 +1352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1251,14 +1360,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/us/Princeton (US) Project - DC Data/field_diffs.xlsx
+++ b/us/Princeton (US) Project - DC Data/field_diffs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,10 +945,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
